--- a/LOGS/c29cb70d-6919-401e-a1df-c160d1cd4b79/main_page_service_output/main_pages.xlsx
+++ b/LOGS/c29cb70d-6919-401e-a1df-c160d1cd4b79/main_page_service_output/main_pages.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="91">
   <si>
     <t>Particulars</t>
   </si>
@@ -184,9 +184,6 @@
     <t>equity</t>
   </si>
   <si>
-    <t>Continuing operations</t>
-  </si>
-  <si>
     <t>Revenue</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
   </si>
   <si>
     <t>Total comprehensive income for the year</t>
-  </si>
-  <si>
-    <t>Operating activities</t>
   </si>
   <si>
     <t>Receipts from customers</t>
@@ -692,6 +686,9 @@
       <c r="E2" t="s">
         <v>50</v>
       </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
@@ -966,10 +963,10 @@
         <v>205925043</v>
       </c>
       <c r="E17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1236,7 +1233,7 @@
         <v>51</v>
       </c>
       <c r="F32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1346,7 +1343,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1371,24 +1368,21 @@
         <v>55</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>315145019</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>301558406</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
       <c r="C3">
-        <v>315145019</v>
+        <v>-249071397</v>
       </c>
       <c r="D3">
-        <v>301558406</v>
+        <v>-248163172</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1396,10 +1390,10 @@
         <v>57</v>
       </c>
       <c r="C4">
-        <v>-249071397</v>
+        <v>66073622</v>
       </c>
       <c r="D4">
-        <v>-248163172</v>
+        <v>53395234</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1407,38 +1401,32 @@
         <v>58</v>
       </c>
       <c r="C5">
-        <v>66073622</v>
+        <v>718958</v>
       </c>
       <c r="D5">
-        <v>53395234</v>
+        <v>824594</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>59</v>
       </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
       <c r="C6">
-        <v>718958</v>
+        <v>-13641165</v>
       </c>
       <c r="D6">
-        <v>824594</v>
+        <v>-13097500</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>60</v>
       </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
       <c r="C7">
-        <v>-13641165</v>
+        <v>-1736272</v>
       </c>
       <c r="D7">
-        <v>-13097500</v>
+        <v>-1657280</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1446,10 +1434,10 @@
         <v>61</v>
       </c>
       <c r="C8">
-        <v>-1736272</v>
+        <v>-108758</v>
       </c>
       <c r="D8">
-        <v>-1657280</v>
+        <v>-144525</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1457,24 +1445,21 @@
         <v>62</v>
       </c>
       <c r="C9">
-        <v>-108758</v>
+        <v>-31588388</v>
       </c>
       <c r="D9">
-        <v>-144525</v>
+        <v>-21764733</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>63</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
       <c r="C10">
-        <v>-31588388</v>
+        <v>19717997</v>
       </c>
       <c r="D10">
-        <v>-21764733</v>
+        <v>17555790</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1482,10 +1467,10 @@
         <v>64</v>
       </c>
       <c r="C11">
-        <v>19717997</v>
+        <v>1343657</v>
       </c>
       <c r="D11">
-        <v>17555790</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1493,10 +1478,10 @@
         <v>65</v>
       </c>
       <c r="C12">
-        <v>1343657</v>
+        <v>-1119867</v>
       </c>
       <c r="D12">
-        <v>7754</v>
+        <v>-1131055</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1504,24 +1489,21 @@
         <v>66</v>
       </c>
       <c r="C13">
-        <v>-1119867</v>
+        <v>223790</v>
       </c>
       <c r="D13">
-        <v>-1131055</v>
+        <v>-1123301</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14">
-        <v>8</v>
-      </c>
       <c r="C14">
-        <v>223790</v>
+        <v>19941787</v>
       </c>
       <c r="D14">
-        <v>-1123301</v>
+        <v>16432489</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1529,24 +1511,21 @@
         <v>68</v>
       </c>
       <c r="C15">
-        <v>19941787</v>
+        <v>-5887745</v>
       </c>
       <c r="D15">
-        <v>16432489</v>
+        <v>-5285030</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>69</v>
       </c>
-      <c r="B16">
-        <v>9</v>
-      </c>
       <c r="C16">
-        <v>-5887745</v>
+        <v>14054042</v>
       </c>
       <c r="D16">
-        <v>-5285030</v>
+        <v>11147459</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1554,10 +1533,10 @@
         <v>70</v>
       </c>
       <c r="C17">
-        <v>14054042</v>
+        <v>0</v>
       </c>
       <c r="D17">
-        <v>11147459</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1565,20 +1544,9 @@
         <v>71</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>14054042</v>
       </c>
       <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19">
-        <v>14054042</v>
-      </c>
-      <c r="D19">
         <v>11147459</v>
       </c>
     </row>
@@ -1589,7 +1557,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1617,136 +1585,115 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>352288322</v>
       </c>
       <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>90</v>
+        <v>326452550</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3">
-        <v>352288322</v>
+        <v>-353478106</v>
       </c>
       <c r="D3">
-        <v>326452550</v>
-      </c>
-      <c r="E3" t="s">
-        <v>90</v>
+        <v>-311261336</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>-353478106</v>
+        <v>1343657</v>
       </c>
       <c r="D4">
-        <v>-311261336</v>
-      </c>
-      <c r="E4" t="s">
-        <v>90</v>
+        <v>7754</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5">
-        <v>1343657</v>
+        <v>-276470</v>
       </c>
       <c r="D5">
-        <v>7754</v>
-      </c>
-      <c r="E5" t="s">
-        <v>90</v>
+        <v>-272019</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6">
-        <v>-276470</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>-272019</v>
-      </c>
-      <c r="E6" t="s">
-        <v>90</v>
+        <v>55942</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>-6501048</v>
       </c>
       <c r="D7">
-        <v>55942</v>
-      </c>
-      <c r="E7" t="s">
-        <v>90</v>
+        <v>-7792305</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8">
-        <v>-6501048</v>
+        <v>-6623645</v>
       </c>
       <c r="D8">
-        <v>-7792305</v>
+        <v>7190586</v>
       </c>
       <c r="E8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C9">
-        <v>-6623645</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>7190586</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-360965</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>-270777</v>
       </c>
       <c r="E10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>-360965</v>
@@ -1755,40 +1702,40 @@
         <v>-270777</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12">
-        <v>-360965</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>-270777</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-1042791</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>-897505</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C14">
         <v>-1042791</v>
@@ -1797,66 +1744,49 @@
         <v>-897505</v>
       </c>
       <c r="E14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
-        <v>-1042791</v>
+        <v>-8027401</v>
       </c>
       <c r="D15">
-        <v>-897505</v>
+        <v>6022304</v>
       </c>
       <c r="E15" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16">
-        <v>-8027401</v>
+        <v>15609224</v>
       </c>
       <c r="D16">
-        <v>6022304</v>
+        <v>9586920</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C17">
+        <v>7581823</v>
+      </c>
+      <c r="D17">
         <v>15609224</v>
       </c>
-      <c r="D17">
-        <v>9586920</v>
-      </c>
       <c r="E17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>89</v>
-      </c>
-      <c r="B18">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>7581823</v>
-      </c>
-      <c r="D18">
-        <v>15609224</v>
-      </c>
-      <c r="E18" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
